--- a/REGULAR/RE-ENCODE/DIMAPILIS ARIEL.xlsx
+++ b/REGULAR/RE-ENCODE/DIMAPILIS ARIEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E711F6-E27C-44BF-B0E8-D4B81083927C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -273,11 +272,14 @@
   <si>
     <t>TOTAL LEAVE</t>
   </si>
+  <si>
+    <t>4/15,17/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -918,7 +920,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -964,25 +965,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1289,34 +1290,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
+      <selection activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1339,7 +1340,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1361,7 +1362,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1383,7 +1384,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1391,7 +1392,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1404,7 +1405,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1421,7 +1422,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1475,12 +1476,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>333.565</v>
+        <v>331.565</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1500,7 +1501,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>46</v>
       </c>
@@ -1518,7 +1519,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43101</v>
       </c>
@@ -1538,7 +1539,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -1558,7 +1559,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -1578,7 +1579,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -1598,7 +1599,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43221</v>
       </c>
@@ -1618,7 +1619,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -1638,7 +1639,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43313</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -1710,7 +1711,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -1730,7 +1731,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -1750,7 +1751,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -1774,7 +1775,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>51</v>
       </c>
@@ -1792,7 +1793,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -1812,7 +1813,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -1832,7 +1833,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -1852,7 +1853,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -1872,7 +1873,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -1892,7 +1893,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -1912,7 +1913,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -1932,7 +1933,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -1952,7 +1953,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -1972,7 +1973,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>47</v>
@@ -2022,7 +2023,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43770</v>
       </c>
@@ -2042,7 +2043,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
       <c r="B38" s="20" t="s">
         <v>57</v>
@@ -2086,7 +2087,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>56</v>
       </c>
@@ -2104,7 +2105,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>58</v>
@@ -2150,7 +2151,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>59</v>
@@ -2174,7 +2175,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43862</v>
       </c>
@@ -2194,7 +2195,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43891</v>
       </c>
@@ -2214,7 +2215,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43922</v>
       </c>
@@ -2234,7 +2235,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43952</v>
       </c>
@@ -2254,7 +2255,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43983</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>50</v>
@@ -2302,7 +2303,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44013</v>
       </c>
@@ -2322,7 +2323,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44044</v>
       </c>
@@ -2342,7 +2343,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44075</v>
       </c>
@@ -2362,7 +2363,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44105</v>
       </c>
@@ -2382,7 +2383,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44136</v>
       </c>
@@ -2402,7 +2403,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44166</v>
       </c>
@@ -2422,7 +2423,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>63</v>
       </c>
@@ -2440,7 +2441,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44197</v>
       </c>
@@ -2460,7 +2461,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44228</v>
       </c>
@@ -2480,7 +2481,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44256</v>
       </c>
@@ -2500,7 +2501,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44287</v>
       </c>
@@ -2520,7 +2521,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44317</v>
       </c>
@@ -2540,7 +2541,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44348</v>
       </c>
@@ -2560,7 +2561,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44378</v>
       </c>
@@ -2580,7 +2581,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44409</v>
       </c>
@@ -2600,7 +2601,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44440</v>
       </c>
@@ -2620,7 +2621,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44470</v>
       </c>
@@ -2640,7 +2641,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44501</v>
       </c>
@@ -2660,7 +2661,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44531</v>
       </c>
@@ -2684,7 +2685,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>64</v>
       </c>
@@ -2702,7 +2703,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44562</v>
       </c>
@@ -2722,7 +2723,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44593</v>
       </c>
@@ -2742,7 +2743,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44621</v>
       </c>
@@ -2762,7 +2763,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44652</v>
       </c>
@@ -2782,7 +2783,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44682</v>
       </c>
@@ -2802,7 +2803,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44713</v>
       </c>
@@ -2822,7 +2823,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44743</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44774</v>
       </c>
@@ -2868,7 +2869,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44805</v>
       </c>
@@ -2888,7 +2889,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44835</v>
       </c>
@@ -2908,7 +2909,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44866</v>
       </c>
@@ -2928,7 +2929,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44896</v>
       </c>
@@ -2954,7 +2955,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>68</v>
@@ -2974,7 +2975,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>69</v>
       </c>
@@ -2992,7 +2993,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44927</v>
       </c>
@@ -3012,7 +3013,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44958</v>
       </c>
@@ -3032,7 +3033,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44986</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>73</v>
@@ -3080,11 +3081,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45017</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
@@ -3093,12 +3096,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H87" s="39"/>
+      <c r="H87" s="39">
+        <v>2</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45047</v>
       </c>
@@ -3116,7 +3123,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45078</v>
       </c>
@@ -3134,7 +3141,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45108</v>
       </c>
@@ -3152,7 +3159,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45139</v>
       </c>
@@ -3170,7 +3177,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45170</v>
       </c>
@@ -3188,7 +3195,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45200</v>
       </c>
@@ -3206,7 +3213,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45231</v>
       </c>
@@ -3224,7 +3231,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45261</v>
       </c>
@@ -3242,7 +3249,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45292</v>
       </c>
@@ -3260,7 +3267,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45323</v>
       </c>
@@ -3278,7 +3285,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45352</v>
       </c>
@@ -3296,7 +3303,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45383</v>
       </c>
@@ -3314,7 +3321,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45413</v>
       </c>
@@ -3332,7 +3339,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45444</v>
       </c>
@@ -3350,7 +3357,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45474</v>
       </c>
@@ -3368,7 +3375,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45505</v>
       </c>
@@ -3386,7 +3393,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45536</v>
       </c>
@@ -3404,7 +3411,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45566</v>
       </c>
@@ -3422,7 +3429,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45597</v>
       </c>
@@ -3440,7 +3447,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45627</v>
       </c>
@@ -3458,7 +3465,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45658</v>
       </c>
@@ -3476,7 +3483,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45689</v>
       </c>
@@ -3494,7 +3501,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45717</v>
       </c>
@@ -3512,7 +3519,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45748</v>
       </c>
@@ -3530,7 +3537,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45778</v>
       </c>
@@ -3548,7 +3555,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45809</v>
       </c>
@@ -3566,7 +3573,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45839</v>
       </c>
@@ -3584,7 +3591,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45870</v>
       </c>
@@ -3602,7 +3609,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45901</v>
       </c>
@@ -3620,7 +3627,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45931</v>
       </c>
@@ -3638,7 +3645,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45962</v>
       </c>
@@ -3656,7 +3663,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45992</v>
       </c>
@@ -3674,7 +3681,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>46023</v>
       </c>
@@ -3692,7 +3699,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>46054</v>
       </c>
@@ -3710,7 +3717,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>46082</v>
       </c>
@@ -3728,7 +3735,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>46113</v>
       </c>
@@ -3746,7 +3753,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>46143</v>
       </c>
@@ -3764,7 +3771,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>46174</v>
       </c>
@@ -3782,7 +3789,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3798,7 +3805,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3814,7 +3821,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3830,7 +3837,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3846,7 +3853,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3862,7 +3869,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41"/>
       <c r="B131" s="15"/>
       <c r="C131" s="42"/>
@@ -3893,10 +3900,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3919,28 +3926,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3953,7 +3960,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3982,7 +3989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>98.861000000000004</v>
       </c>
@@ -4006,17 +4013,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -4040,10 +4047,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>490.17599999999999</v>
+        <v>488.17599999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -4071,7 +4078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4097,7 +4104,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4123,7 +4130,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4149,7 +4156,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4175,7 +4182,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4201,7 +4208,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4227,7 +4234,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4253,7 +4260,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4273,7 +4280,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4293,7 +4300,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4313,7 +4320,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4334,7 +4341,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4355,7 +4362,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4376,7 +4383,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4397,7 +4404,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4418,7 +4425,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4439,7 +4446,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4460,7 +4467,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4481,7 +4488,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4502,7 +4509,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4523,7 +4530,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4544,7 +4551,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4565,7 +4572,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4586,7 +4593,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4607,7 +4614,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4628,7 +4635,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4649,7 +4656,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4670,7 +4677,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4691,7 +4698,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4712,7 +4719,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4733,7 +4740,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4742,7 +4749,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4751,7 +4758,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4760,7 +4767,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4769,7 +4776,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4778,7 +4785,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4787,7 +4794,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4796,7 +4803,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4805,7 +4812,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4814,7 +4821,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4823,7 +4830,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4832,7 +4839,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4841,7 +4848,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4850,7 +4857,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4859,7 +4866,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4868,7 +4875,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4877,7 +4884,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4886,7 +4893,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4895,7 +4902,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4904,7 +4911,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4913,7 +4920,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4922,7 +4929,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4931,7 +4938,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4940,7 +4947,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4949,7 +4956,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4958,7 +4965,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4967,7 +4974,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4976,7 +4983,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4985,7 +4992,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4994,7 +5001,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/RE-ENCODE/DIMAPILIS ARIEL.xlsx
+++ b/REGULAR/RE-ENCODE/DIMAPILIS ARIEL.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1299,7 +1299,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="B14" sqref="B14"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1466,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>156.61099999999999</v>
+        <v>157.86099999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1476,7 +1476,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>331.565</v>
+        <v>331.815</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3088,13 +3088,15 @@
       <c r="B87" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39">
         <v>2</v>
@@ -3109,7 +3111,9 @@
       <c r="A88" s="40">
         <v>45047</v>
       </c>
-      <c r="B88" s="20"/>
+      <c r="B88" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
@@ -3118,10 +3122,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H88" s="39"/>
+      <c r="H88" s="39">
+        <v>1</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="49">
+        <v>45054</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
@@ -4050,7 +4058,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>488.17599999999999</v>
+        <v>489.67599999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/RE-ENCODE/DIMAPILIS ARIEL.xlsx
+++ b/REGULAR/RE-ENCODE/DIMAPILIS ARIEL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE84971-16C9-48C4-80B4-9D967526D572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -159,9 +160,6 @@
   </si>
   <si>
     <t>SL EARNED</t>
-  </si>
-  <si>
-    <t>DIMAPILIS AREIL M.</t>
   </si>
   <si>
     <t>PERMANENT</t>
@@ -275,11 +273,23 @@
   <si>
     <t>4/15,17/2023</t>
   </si>
+  <si>
+    <t>5/18,29/2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>DIMAPILIS ARIEL M.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -948,7 +958,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -965,25 +975,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K97" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1290,39 +1300,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
-      <selection activeCell="B14" sqref="B14"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <pane ySplit="3696" topLeftCell="A83" activePane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
@@ -1330,7 +1340,7 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
@@ -1340,19 +1350,19 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
@@ -1362,19 +1372,19 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
@@ -1384,7 +1394,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1392,7 +1402,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1405,7 +1415,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1422,7 +1432,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +1467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1466,7 +1476,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>157.86099999999999</v>
+        <v>159.11099999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1476,12 +1486,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>331.815</v>
+        <v>330.065</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1501,9 +1511,9 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -1519,7 +1529,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43101</v>
       </c>
@@ -1539,7 +1549,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -1559,7 +1569,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -1579,7 +1589,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -1599,7 +1609,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43221</v>
       </c>
@@ -1619,7 +1629,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -1639,12 +1649,12 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="13">
         <v>1.25</v>
@@ -1662,15 +1672,15 @@
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
       <c r="K18" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43313</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="13">
         <v>1.25</v>
@@ -1688,10 +1698,10 @@
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -1711,7 +1721,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -1731,7 +1741,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -1751,12 +1761,12 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="13">
         <v>1.25</v>
@@ -1775,9 +1785,9 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -1793,7 +1803,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -1813,7 +1823,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -1833,7 +1843,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -1853,7 +1863,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -1873,7 +1883,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -1893,7 +1903,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -1913,7 +1923,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -1933,7 +1943,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -1953,7 +1963,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -1973,12 +1983,12 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="13">
         <v>1.25</v>
@@ -1999,10 +2009,10 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
@@ -2020,10 +2030,10 @@
         <v>2</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43770</v>
       </c>
@@ -2043,12 +2053,12 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="13">
         <v>1.25</v>
@@ -2064,13 +2074,13 @@
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="48"/>
       <c r="B38" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39">
@@ -2087,9 +2097,9 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -2105,12 +2115,12 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
@@ -2126,13 +2136,13 @@
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
       <c r="K40" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="13">
         <v>1.25</v>
@@ -2148,13 +2158,13 @@
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
       <c r="K41" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="13">
         <v>1.25</v>
@@ -2172,10 +2182,10 @@
         <v>1</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43862</v>
       </c>
@@ -2195,7 +2205,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43891</v>
       </c>
@@ -2215,7 +2225,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43922</v>
       </c>
@@ -2235,7 +2245,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43952</v>
       </c>
@@ -2255,12 +2265,12 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43983</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="13">
         <v>1.25</v>
@@ -2281,10 +2291,10 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
@@ -2303,7 +2313,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44013</v>
       </c>
@@ -2323,7 +2333,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44044</v>
       </c>
@@ -2343,7 +2353,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44075</v>
       </c>
@@ -2363,7 +2373,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44105</v>
       </c>
@@ -2383,7 +2393,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44136</v>
       </c>
@@ -2403,7 +2413,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44166</v>
       </c>
@@ -2423,9 +2433,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2441,7 +2451,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44197</v>
       </c>
@@ -2461,7 +2471,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44228</v>
       </c>
@@ -2481,7 +2491,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44256</v>
       </c>
@@ -2501,7 +2511,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44287</v>
       </c>
@@ -2521,7 +2531,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44317</v>
       </c>
@@ -2541,7 +2551,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44348</v>
       </c>
@@ -2561,7 +2571,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44378</v>
       </c>
@@ -2581,7 +2591,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44409</v>
       </c>
@@ -2601,7 +2611,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44440</v>
       </c>
@@ -2621,7 +2631,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44470</v>
       </c>
@@ -2641,7 +2651,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44501</v>
       </c>
@@ -2661,12 +2671,12 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44531</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" s="13">
         <v>1.25</v>
@@ -2685,9 +2695,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2703,7 +2713,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44562</v>
       </c>
@@ -2723,7 +2733,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44593</v>
       </c>
@@ -2743,7 +2753,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44621</v>
       </c>
@@ -2763,7 +2773,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44652</v>
       </c>
@@ -2783,7 +2793,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44682</v>
       </c>
@@ -2803,7 +2813,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44713</v>
       </c>
@@ -2823,12 +2833,12 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44743</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
@@ -2846,10 +2856,10 @@
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
       <c r="K75" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44774</v>
       </c>
@@ -2869,7 +2879,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44805</v>
       </c>
@@ -2889,7 +2899,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44835</v>
       </c>
@@ -2909,7 +2919,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44866</v>
       </c>
@@ -2929,12 +2939,12 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44896</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -2952,13 +2962,13 @@
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="39">
@@ -2975,9 +2985,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2993,7 +3003,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44927</v>
       </c>
@@ -3013,7 +3023,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44958</v>
       </c>
@@ -3033,12 +3043,12 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44986</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C85" s="13">
         <v>1.25</v>
@@ -3059,10 +3069,10 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -3078,15 +3088,15 @@
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45017</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C87" s="13">
         <v>1.25</v>
@@ -3104,23 +3114,25 @@
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45047</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C88" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39">
         <v>1</v>
@@ -3131,11 +3143,11 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B89" s="20"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40"/>
+      <c r="B89" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
@@ -3144,16 +3156,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H89" s="39"/>
+      <c r="H89" s="39">
+        <v>2</v>
+      </c>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B90" s="20"/>
+      <c r="K89" s="49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40"/>
+      <c r="B90" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
@@ -3165,13 +3181,17 @@
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="49">
+        <v>45080</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B91" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
@@ -3180,14 +3200,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="39"/>
+      <c r="H91" s="39">
+        <v>1</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="49">
+        <v>45080</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3203,9 +3227,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3221,9 +3245,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3239,9 +3263,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3257,9 +3281,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3275,9 +3299,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3292,606 +3316,6 @@
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H98" s="39"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="39"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="39"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H101" s="39"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40">
-        <v>45474</v>
-      </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H102" s="39"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B103" s="20"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H103" s="39"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40">
-        <v>45536</v>
-      </c>
-      <c r="B104" s="20"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H104" s="39"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40">
-        <v>45566</v>
-      </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H105" s="39"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40">
-        <v>45597</v>
-      </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H106" s="39"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="20"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40">
-        <v>45627</v>
-      </c>
-      <c r="B107" s="20"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H107" s="39"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="20"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40">
-        <v>45658</v>
-      </c>
-      <c r="B108" s="20"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H108" s="39"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="20"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40">
-        <v>45689</v>
-      </c>
-      <c r="B109" s="20"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H109" s="39"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="20"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40">
-        <v>45717</v>
-      </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H110" s="39"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="20"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40">
-        <v>45748</v>
-      </c>
-      <c r="B111" s="20"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H111" s="39"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40">
-        <v>45778</v>
-      </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H112" s="39"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40">
-        <v>45809</v>
-      </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H113" s="39"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40">
-        <v>45839</v>
-      </c>
-      <c r="B114" s="20"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H114" s="39"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="20"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40">
-        <v>45870</v>
-      </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="39"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40">
-        <v>45901</v>
-      </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H116" s="39"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="20"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40">
-        <v>45931</v>
-      </c>
-      <c r="B117" s="20"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H117" s="39"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40">
-        <v>45962</v>
-      </c>
-      <c r="B118" s="20"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H118" s="39"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40">
-        <v>45992</v>
-      </c>
-      <c r="B119" s="20"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H119" s="39"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="20"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40">
-        <v>46023</v>
-      </c>
-      <c r="B120" s="20"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H120" s="39"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="20"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40">
-        <v>46054</v>
-      </c>
-      <c r="B121" s="20"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H121" s="39"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40">
-        <v>46082</v>
-      </c>
-      <c r="B122" s="20"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H122" s="39"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="20"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40">
-        <v>46113</v>
-      </c>
-      <c r="B123" s="20"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H123" s="39"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40">
-        <v>46143</v>
-      </c>
-      <c r="B124" s="20"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="39"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="20"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40">
-        <v>46174</v>
-      </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="39"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="20"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H126" s="39"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="39"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="20"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="39"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="20"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="39"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="39"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3908,10 +3332,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3934,28 +3358,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3968,7 +3392,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3997,7 +3421,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>98.861000000000004</v>
       </c>
@@ -4021,19 +3445,19 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
@@ -4055,10 +3479,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>489.67599999999999</v>
+        <v>489.17599999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -4086,7 +3510,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4112,7 +3536,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4138,7 +3562,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4164,7 +3588,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4190,7 +3614,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4216,7 +3640,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4242,7 +3666,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4268,7 +3692,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4288,7 +3712,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4308,7 +3732,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4328,7 +3752,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4349,7 +3773,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4370,7 +3794,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4391,7 +3815,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4412,7 +3836,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4433,7 +3857,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4454,7 +3878,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4475,7 +3899,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4496,7 +3920,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4517,7 +3941,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4538,7 +3962,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4559,7 +3983,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4580,7 +4004,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4601,7 +4025,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4622,7 +4046,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4643,7 +4067,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4664,7 +4088,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4685,7 +4109,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4706,7 +4130,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4727,7 +4151,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4748,7 +4172,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4757,7 +4181,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4766,7 +4190,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4775,7 +4199,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4784,7 +4208,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4793,7 +4217,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4802,7 +4226,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4811,7 +4235,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4820,7 +4244,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4829,7 +4253,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4838,7 +4262,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4847,7 +4271,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4856,7 +4280,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4865,7 +4289,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4874,7 +4298,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4883,7 +4307,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4892,7 +4316,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4901,7 +4325,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4910,7 +4334,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4919,7 +4343,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4928,7 +4352,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4937,7 +4361,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4946,7 +4370,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4955,7 +4379,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4964,7 +4388,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4973,7 +4397,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4982,7 +4406,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4991,7 +4415,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5000,7 +4424,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5009,7 +4433,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
